--- a/chr2fa_speed_phyrate.xlsx
+++ b/chr2fa_speed_phyrate.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunzh81/Downloads/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/sunzh81/Documents/GitHub/wifi_score_v4/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6662040-BA06-F34C-8A36-106FBFCA0B4D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41E3F9BC-727F-EA4F-A301-935169593158}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="680" windowWidth="29920" windowHeight="18660" xr2:uid="{384A19A1-C84B-C644-9E50-92C120EB753A}"/>
   </bookViews>
@@ -245,147 +245,6 @@
   <dxfs count="16">
     <dxf>
       <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="14" formatCode="0.00%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
-        <b val="0"/>
-        <i val="0"/>
-        <strike val="0"/>
-        <condense val="0"/>
-        <extend val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="14"/>
-        <color theme="1"/>
-        <name val="Aptos Narrow"/>
-        <scheme val="minor"/>
-      </font>
-    </dxf>
-    <dxf>
-      <font>
         <b/>
         <i val="0"/>
         <strike val="0"/>
@@ -577,6 +436,147 @@
         <name val="Tahoma"/>
         <family val="2"/>
         <scheme val="none"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="14" formatCode="0.00%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
+      </font>
+    </dxf>
+    <dxf>
+      <font>
+        <b val="0"/>
+        <i val="0"/>
+        <strike val="0"/>
+        <condense val="0"/>
+        <extend val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="14"/>
+        <color theme="1"/>
+        <name val="Aptos Narrow"/>
+        <scheme val="minor"/>
       </font>
     </dxf>
   </dxfs>
@@ -730,31 +730,31 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD09D9E0-3EFB-D94E-B8E0-93285A8040F7}" name="Table1" displayName="Table1" ref="B44:H48" totalsRowShown="0" headerRowDxfId="15">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{CD09D9E0-3EFB-D94E-B8E0-93285A8040F7}" name="Table1" displayName="Table1" ref="B44:H48" totalsRowShown="0" headerRowDxfId="7">
   <autoFilter ref="B44:H48" xr:uid="{CD09D9E0-3EFB-D94E-B8E0-93285A8040F7}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{B37B9385-FF5E-704F-9BE5-53DB070849A1}" name="Category " dataDxfId="14"/>
-    <tableColumn id="2" xr3:uid="{5C945F30-4966-0348-B52E-A72FA4EFAA0C}" name=" Airtime_Utilization_Count " dataDxfId="13"/>
-    <tableColumn id="3" xr3:uid="{6B8C042C-F97C-7348-9830-9ADF057F4C62}" name=" Airtime_Utilization_Percentage " dataDxfId="12"/>
-    <tableColumn id="4" xr3:uid="{357CDF8B-D42E-8A49-AD53-66264C195BAE}" name=" Phyrate_Count " dataDxfId="11"/>
-    <tableColumn id="5" xr3:uid="{5AA88331-FF59-7B41-8B94-7681D3F26BDD}" name=" Phyrate_Percentage " dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{FE5B7A4D-9E3F-764D-B15F-1B2B99ED5231}" name=" SpeedScore_Count " dataDxfId="9"/>
-    <tableColumn id="7" xr3:uid="{AE92389F-4F17-594B-9D2F-B92504B9EBCC}" name=" SpeedScore_Percentage" dataDxfId="8"/>
+    <tableColumn id="1" xr3:uid="{B37B9385-FF5E-704F-9BE5-53DB070849A1}" name="Category " dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{5C945F30-4966-0348-B52E-A72FA4EFAA0C}" name=" Airtime_Utilization_Count " dataDxfId="5"/>
+    <tableColumn id="3" xr3:uid="{6B8C042C-F97C-7348-9830-9ADF057F4C62}" name=" Airtime_Utilization_Percentage " dataDxfId="4"/>
+    <tableColumn id="4" xr3:uid="{357CDF8B-D42E-8A49-AD53-66264C195BAE}" name=" Phyrate_Count " dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{5AA88331-FF59-7B41-8B94-7681D3F26BDD}" name=" Phyrate_Percentage " dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{FE5B7A4D-9E3F-764D-B15F-1B2B99ED5231}" name=" SpeedScore_Count " dataDxfId="1"/>
+    <tableColumn id="7" xr3:uid="{AE92389F-4F17-594B-9D2F-B92504B9EBCC}" name=" SpeedScore_Percentage" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8E1A0BB0-355A-8F44-BEFE-C85E311CB93B}" name="Table2" displayName="Table2" ref="B50:H54" totalsRowShown="0" headerRowDxfId="7" dataDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{8E1A0BB0-355A-8F44-BEFE-C85E311CB93B}" name="Table2" displayName="Table2" ref="B50:H54" totalsRowShown="0" headerRowDxfId="15" dataDxfId="14">
   <autoFilter ref="B50:H54" xr:uid="{8E1A0BB0-355A-8F44-BEFE-C85E311CB93B}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{01B9E280-37E6-9342-BF3D-4606C118CF91}" name="Category " dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{AC509ED4-6D7A-8447-80B2-2748AD7ECF28}" name=" Airtime_Utilization_Count " dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{05120698-8C87-1A49-8E3D-72A489C533EE}" name=" Airtime_Utilization_Percentage " dataDxfId="3"/>
-    <tableColumn id="4" xr3:uid="{F46678D5-C636-CB47-A6D2-8B75AE7DFC28}" name=" Phyrate_Count " dataDxfId="2"/>
-    <tableColumn id="5" xr3:uid="{4DCBBC1E-7C21-A546-B5A8-F41E98027714}" name=" Phyrate_Percentage " dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{7833BC92-A832-4544-93C9-E15ED452F7F6}" name=" SpeedScore_Count " dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{01B9E280-37E6-9342-BF3D-4606C118CF91}" name="Category " dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{AC509ED4-6D7A-8447-80B2-2748AD7ECF28}" name=" Airtime_Utilization_Count " dataDxfId="12"/>
+    <tableColumn id="3" xr3:uid="{05120698-8C87-1A49-8E3D-72A489C533EE}" name=" Airtime_Utilization_Percentage " dataDxfId="11"/>
+    <tableColumn id="4" xr3:uid="{F46678D5-C636-CB47-A6D2-8B75AE7DFC28}" name=" Phyrate_Count " dataDxfId="10"/>
+    <tableColumn id="5" xr3:uid="{4DCBBC1E-7C21-A546-B5A8-F41E98027714}" name=" Phyrate_Percentage " dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{7833BC92-A832-4544-93C9-E15ED452F7F6}" name=" SpeedScore_Count " dataDxfId="8"/>
     <tableColumn id="7" xr3:uid="{4531EF1B-1A21-FC48-815B-A739F4163DE4}" name=" SpeedScore_Percentage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight4" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -1080,8 +1080,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3D802BB-7B67-CF48-A82E-E69F4F597B74}">
   <dimension ref="B26:H64"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A40" workbookViewId="0">
-      <selection sqref="A1:A1048576"/>
+    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
+      <selection activeCell="B50" sqref="B50:H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1369,6 +1369,7 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
   <drawing r:id="rId1"/>
   <tableParts count="2">
     <tablePart r:id="rId2"/>
